--- a/Excel/EposBlankTile.xlsx
+++ b/Excel/EposBlankTile.xlsx
@@ -490,7 +490,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>102001.0</v>
+        <v>107.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
